--- a/raw_data/raw_excel/Summary_phenology_available_data.xlsx
+++ b/raw_data/raw_excel/Summary_phenology_available_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/avipo_dtu_dk/Documents/Skrivebord/Postdoc/Projects/Fenology_cysto/raw_data/raw_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avipo\OneDrive - Danmarks Tekniske Universitet\Skrivebord\Postdoc\Projects\Fenology_cysto\raw_data\raw_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{09612D4E-1BD7-4B4A-9906-3F59725241D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5C6FC9E-AAE9-4462-9D32-37EDAD9B94EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D408B-7B98-4788-8B2C-FBC7B199162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{538B25D1-EB74-4967-A229-8C616177EEFF}"/>
+    <workbookView xWindow="28680" yWindow="-10065" windowWidth="29040" windowHeight="15840" xr2:uid="{538B25D1-EB74-4967-A229-8C616177EEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,9 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +213,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A97D53A-CA70-4850-B48D-0CB8C9EB74AF}">
   <dimension ref="B2:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,34 +616,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
     </row>
     <row r="3" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
@@ -720,32 +723,32 @@
       <c r="B4" s="5">
         <v>2016</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="P4" s="5">
         <v>2016</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
       <c r="AB4" s="9">
         <v>42706</v>
       </c>
@@ -754,18 +757,18 @@
       <c r="B5" s="5">
         <v>2017</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="P5" s="5">
         <v>2017</v>
       </c>
@@ -799,25 +802,25 @@
       <c r="Z5" s="9">
         <v>43029</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
     </row>
     <row r="6" spans="2:28" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>2018</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="P6" s="5">
         <v>2018</v>
       </c>
@@ -827,7 +830,7 @@
       <c r="R6" s="9">
         <v>43147</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="9">
         <v>43195</v>
       </c>
@@ -843,11 +846,11 @@
       <c r="X6" s="9">
         <v>43343</v>
       </c>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="15"/>
       <c r="Z6" s="9">
         <v>43397</v>
       </c>
-      <c r="AA6" s="16"/>
+      <c r="AA6" s="15"/>
       <c r="AB6" s="9">
         <v>43439</v>
       </c>
@@ -856,35 +859,35 @@
       <c r="B7" s="5">
         <v>2019</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="P7" s="5">
         <v>2019</v>
       </c>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="9">
         <v>43524</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
@@ -897,7 +900,7 @@
         <v>43865</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <v>43959</v>
       </c>
       <c r="G8" s="2">
@@ -923,10 +926,10 @@
       <c r="P8" s="5">
         <v>2020</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>43865</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="11">
         <v>43959</v>
       </c>
       <c r="U8" s="3">
@@ -954,18 +957,20 @@
       <c r="B9" s="5">
         <v>2021</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4">
+        <v>44223</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
         <v>44284</v>
       </c>
-      <c r="F9" s="2">
-        <v>44293</v>
+      <c r="F9" s="18">
+        <v>44323</v>
       </c>
       <c r="G9" s="3">
         <v>44343</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="11">
         <v>44379</v>
       </c>
       <c r="I9" s="3">
@@ -993,13 +998,13 @@
       <c r="S9" s="3">
         <v>44284</v>
       </c>
-      <c r="T9" s="3">
-        <v>43958</v>
+      <c r="T9" s="11">
+        <v>44323</v>
       </c>
       <c r="U9" s="3">
         <v>44343</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="11">
         <v>44379</v>
       </c>
       <c r="W9" s="3">
@@ -1008,7 +1013,7 @@
       <c r="X9" s="3">
         <v>44431</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="11">
         <v>44470</v>
       </c>
       <c r="Z9" s="3">
@@ -1045,7 +1050,9 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="13">
+        <v>44874</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="P10" s="5">
         <v>2022</v>
@@ -1065,12 +1072,12 @@
       <c r="W10" s="3">
         <v>44764</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="12">
         <v>44799</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="13">
+      <c r="AA10" s="12">
         <v>44874</v>
       </c>
       <c r="AB10" s="1"/>
@@ -1113,27 +1120,27 @@
         <v>2023</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="14">
+      <c r="R11" s="13">
         <v>44979</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="13">
+      <c r="T11" s="12">
         <v>45021</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="13">
         <v>45055</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>45083</v>
       </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <v>45146</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="14">
         <v>45146</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <v>45204</v>
       </c>
       <c r="AA11" s="2">
@@ -1248,20 +1255,20 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="16:28" x14ac:dyDescent="0.35">
       <c r="P17" s="5"/>
@@ -1321,13 +1328,13 @@
       <c r="U18" s="9">
         <v>42872</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="16">
         <v>42920</v>
       </c>
       <c r="W18" s="9">
         <v>42940</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="16">
         <v>42983</v>
       </c>
       <c r="Y18" s="9">
@@ -1339,7 +1346,7 @@
       <c r="AA18" s="9">
         <v>43061</v>
       </c>
-      <c r="AB18" s="16"/>
+      <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="16:28" x14ac:dyDescent="0.35">
       <c r="P19" s="5">
@@ -1348,31 +1355,31 @@
       <c r="Q19" s="9">
         <v>43116</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="9">
         <v>43210</v>
       </c>
       <c r="U19" s="9">
         <v>43251</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="16">
         <v>43293</v>
       </c>
       <c r="W19" s="9">
         <v>43305</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="16">
         <v>43348</v>
       </c>
       <c r="Y19" s="9">
         <v>43371</v>
       </c>
-      <c r="Z19" s="16"/>
+      <c r="Z19" s="15"/>
       <c r="AA19" s="9">
         <v>43425</v>
       </c>
-      <c r="AB19" s="16"/>
+      <c r="AB19" s="15"/>
     </row>
     <row r="20" spans="16:28" x14ac:dyDescent="0.35">
       <c r="P20" s="5">
@@ -1384,18 +1391,18 @@
       <c r="R20" s="9">
         <v>43516</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="9">
         <v>43734</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
     </row>
     <row r="21" spans="16:28" x14ac:dyDescent="0.35">
       <c r="P21" s="5">
@@ -1405,7 +1412,7 @@
       <c r="S21" s="9">
         <v>43902</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="16">
         <v>43952</v>
       </c>
       <c r="U21" s="9">
@@ -1598,7 +1605,7 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:AB10 Q13:AB13 Q11:U11 W11 R12 Z12">
+  <conditionalFormatting sqref="Q8:AB8 Q11:U11 W11 R12 Z12 Q13:AB13 Q10:AB10 Q9:S9 U9:AB9">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(Q8))=0</formula>
     </cfRule>
